--- a/public/file/pagu_target/template.xlsx
+++ b/public/file/pagu_target/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yosef\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7\htdocs\sidakv2\public\file\pagu_target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB261041-92FA-4A70-BBD5-11E8C3B62C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007352A9-4157-4CBF-9EB1-56AE02AC9EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FA56D879-6186-46F3-9366-772124ACB04F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Nama Daerah</t>
   </si>
@@ -71,50 +71,29 @@
     <t>No</t>
   </si>
   <si>
-    <t>Provinsi</t>
-  </si>
-  <si>
     <t>Kabupaten</t>
   </si>
   <si>
-    <t>percobaan1</t>
-  </si>
-  <si>
-    <t>percobaan2</t>
-  </si>
-  <si>
-    <t>percobaan3</t>
-  </si>
-  <si>
-    <t>percobaan4</t>
-  </si>
-  <si>
-    <t>percobaan5</t>
-  </si>
-  <si>
-    <t>percobaan6</t>
-  </si>
-  <si>
-    <t>percobaan7</t>
-  </si>
-  <si>
-    <t>percobaan8</t>
-  </si>
-  <si>
-    <t>percobaan9</t>
-  </si>
-  <si>
-    <t>percobaan10</t>
-  </si>
-  <si>
     <t>daerah id</t>
+  </si>
+  <si>
+    <t>Pengawasan (Rp)</t>
+  </si>
+  <si>
+    <t>Penyelesaian Permasalahan (Rp)</t>
+  </si>
+  <si>
+    <t>Bimbingan Teknis (Rp)</t>
+  </si>
+  <si>
+    <t>Kabupaten Tegal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,11 +115,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -170,13 +144,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC75C6D1-9DB8-4996-AA7F-99E0C740E892}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -506,23 +479,24 @@
     <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -534,402 +508,78 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>3328</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3">
-        <v>202101</v>
+        <v>2024</v>
       </c>
       <c r="F2" s="3">
+        <v>37500000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>15000000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="I2" s="3">
+        <v>12500000</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>37500000</v>
+      </c>
+      <c r="L2" s="3">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3">
         <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3">
-        <v>2</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3">
-        <v>202301</v>
-      </c>
-      <c r="F5" s="3">
-        <v>521700000</v>
-      </c>
-      <c r="G5" s="3">
-        <v>12500000</v>
-      </c>
-      <c r="H5">
-        <v>534200000</v>
-      </c>
-      <c r="I5" s="3">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3">
-        <v>213</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3">
-        <v>202201</v>
-      </c>
-      <c r="F6" s="3">
-        <v>383914000</v>
-      </c>
-      <c r="G6" s="3">
-        <v>12500000</v>
-      </c>
-      <c r="H6">
-        <v>396414000</v>
-      </c>
-      <c r="I6" s="3">
-        <v>8</v>
-      </c>
-      <c r="J6" s="3">
-        <v>236</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>202301</v>
-      </c>
-      <c r="F7" s="3">
-        <v>532100000</v>
-      </c>
-      <c r="G7" s="3">
-        <v>12500000</v>
-      </c>
-      <c r="H7">
-        <v>544600000</v>
-      </c>
-      <c r="I7" s="3">
-        <v>7</v>
-      </c>
-      <c r="J7" s="3">
-        <v>204</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3">
-        <v>202201</v>
-      </c>
-      <c r="F8" s="3">
-        <v>369695000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>12500000</v>
-      </c>
-      <c r="H8">
-        <v>382195000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3">
-        <v>212</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3">
-        <v>202201</v>
-      </c>
-      <c r="F9" s="3">
-        <v>393394000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>12500000</v>
-      </c>
-      <c r="H9">
-        <v>405894000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9</v>
-      </c>
-      <c r="J9" s="3">
-        <v>249</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3">
-        <v>202301</v>
-      </c>
-      <c r="F10" s="3">
-        <v>480000000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>12500000</v>
-      </c>
-      <c r="H10">
-        <v>492500000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>9</v>
-      </c>
-      <c r="J10" s="3">
-        <v>256</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3">
-        <v>202201</v>
-      </c>
-      <c r="F11" s="3">
-        <v>355476000</v>
-      </c>
-      <c r="G11" s="3">
-        <v>12500000</v>
-      </c>
-      <c r="H11">
-        <v>367976000</v>
-      </c>
-      <c r="I11" s="3">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3">
-        <v>206</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
